--- a/testData/WebForm/TC016_WF_RRN_OneY_TwoN_Test.xlsx
+++ b/testData/WebForm/TC016_WF_RRN_OneY_TwoN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="111">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -325,6 +325,33 @@
   </si>
   <si>
     <t>9840041056</t>
+  </si>
+  <si>
+    <t>9840012393</t>
+  </si>
+  <si>
+    <t>9840047034</t>
+  </si>
+  <si>
+    <t>9840011675</t>
+  </si>
+  <si>
+    <t>9840014446</t>
+  </si>
+  <si>
+    <t>9840083166</t>
+  </si>
+  <si>
+    <t>9840023824</t>
+  </si>
+  <si>
+    <t>9840004860</t>
+  </si>
+  <si>
+    <t>9840059068</t>
+  </si>
+  <si>
+    <t>9840036323</t>
   </si>
 </sst>
 </file>
@@ -951,7 +978,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1124,7 +1151,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1171,7 +1198,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1218,7 +1245,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1266,7 +1293,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1313,7 +1340,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1360,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1407,7 +1434,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1454,7 +1481,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC016_WF_RRN_OneY_TwoN_Test.xlsx
+++ b/testData/WebForm/TC016_WF_RRN_OneY_TwoN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="120">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -352,6 +352,33 @@
   </si>
   <si>
     <t>9840036323</t>
+  </si>
+  <si>
+    <t>9840015231</t>
+  </si>
+  <si>
+    <t>9840062108</t>
+  </si>
+  <si>
+    <t>9840065202</t>
+  </si>
+  <si>
+    <t>9840023447</t>
+  </si>
+  <si>
+    <t>9840093798</t>
+  </si>
+  <si>
+    <t>9840085683</t>
+  </si>
+  <si>
+    <t>9840091055</t>
+  </si>
+  <si>
+    <t>9840032056</t>
+  </si>
+  <si>
+    <t>9840071650</t>
   </si>
 </sst>
 </file>
@@ -978,7 +1005,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1151,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1198,7 +1225,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1245,7 +1272,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1293,7 +1320,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1340,7 +1367,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1387,7 +1414,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1434,7 +1461,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1481,7 +1508,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC016_WF_RRN_OneY_TwoN_Test.xlsx
+++ b/testData/WebForm/TC016_WF_RRN_OneY_TwoN_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="101">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -246,15 +246,6 @@
     <t>WF_RRN_OneN_TwoY_Test</t>
   </si>
   <si>
-    <t>9840049573</t>
-  </si>
-  <si>
-    <t>9840036539</t>
-  </si>
-  <si>
-    <t>9840076471</t>
-  </si>
-  <si>
     <t>Kimberly</t>
   </si>
   <si>
@@ -282,103 +273,55 @@
     <t>WF_RRN_OneY_TwoN</t>
   </si>
   <si>
-    <t>9840072135</t>
-  </si>
-  <si>
-    <t>9840031259</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>9840096234</t>
-  </si>
-  <si>
-    <t>9840089256</t>
-  </si>
-  <si>
-    <t>9840093491</t>
-  </si>
-  <si>
-    <t>9840085148</t>
+    <t>9840015231</t>
+  </si>
+  <si>
+    <t>9840062108</t>
+  </si>
+  <si>
+    <t>9840065202</t>
+  </si>
+  <si>
+    <t>9840023447</t>
+  </si>
+  <si>
+    <t>9840093798</t>
+  </si>
+  <si>
+    <t>9840085683</t>
+  </si>
+  <si>
+    <t>9840091055</t>
+  </si>
+  <si>
+    <t>9840032056</t>
+  </si>
+  <si>
+    <t>9840071650</t>
+  </si>
+  <si>
+    <t>9840066650</t>
+  </si>
+  <si>
+    <t>9840038931</t>
+  </si>
+  <si>
+    <t>9840036320</t>
+  </si>
+  <si>
+    <t>9840070838</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>9840092357</t>
-  </si>
-  <si>
-    <t>9840010294</t>
-  </si>
-  <si>
-    <t>9840027738</t>
-  </si>
-  <si>
-    <t>9840097713</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9840052546</t>
-  </si>
-  <si>
-    <t>9840041056</t>
-  </si>
-  <si>
-    <t>9840012393</t>
-  </si>
-  <si>
-    <t>9840047034</t>
-  </si>
-  <si>
-    <t>9840011675</t>
-  </si>
-  <si>
-    <t>9840014446</t>
-  </si>
-  <si>
-    <t>9840083166</t>
-  </si>
-  <si>
-    <t>9840023824</t>
-  </si>
-  <si>
-    <t>9840004860</t>
-  </si>
-  <si>
-    <t>9840059068</t>
-  </si>
-  <si>
-    <t>9840036323</t>
-  </si>
-  <si>
-    <t>9840015231</t>
-  </si>
-  <si>
-    <t>9840062108</t>
-  </si>
-  <si>
-    <t>9840065202</t>
-  </si>
-  <si>
-    <t>9840023447</t>
-  </si>
-  <si>
-    <t>9840093798</t>
-  </si>
-  <si>
-    <t>9840085683</t>
-  </si>
-  <si>
-    <t>9840091055</t>
-  </si>
-  <si>
-    <t>9840032056</t>
-  </si>
-  <si>
-    <t>9840071650</t>
+    <t>9840030619</t>
+  </si>
+  <si>
+    <t>9840033480</t>
   </si>
 </sst>
 </file>
@@ -757,59 +700,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.36328125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.54296875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="19" max="19" customWidth="true" width="10.54296875"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" customWidth="true" width="10.54296875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="25" max="25" customWidth="true" width="10.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="33" customWidth="true" width="9.6328125"/>
-    <col min="34" max="35" customWidth="true" width="15.26953125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="37" max="37" customWidth="true" width="17.81640625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" width="13.90625"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="42" max="43" customWidth="true" width="15.26953125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="45" max="46" customWidth="true" width="11.453125"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="48" max="54" customWidth="true" width="11.453125"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7265625"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.85546875"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="42" max="43" customWidth="true" width="15.28515625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="45" max="46" customWidth="true" width="11.42578125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="48" max="54" customWidth="true" width="11.42578125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -988,7 +931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1005,7 +948,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1071,7 +1014,7 @@
         <v>50</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>17</v>
@@ -1080,7 +1023,7 @@
         <v>50</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AF2" s="4" t="s">
         <v>17</v>
@@ -1089,7 +1032,7 @@
         <v>50</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AI2" s="4" t="s">
         <v>17</v>
@@ -1101,10 +1044,10 @@
         <v>29</v>
       </c>
       <c r="AL2" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="AN2" s="0">
         <v>0</v>
@@ -1113,7 +1056,7 @@
         <v>60</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AQ2" s="4" t="s">
         <v>17</v>
@@ -1122,34 +1065,34 @@
         <v>50</v>
       </c>
       <c r="AS2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB2" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB2" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="BC2" s="4" t="s">
         <v>50</v>
@@ -1161,7 +1104,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,7 +1121,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1205,10 +1148,10 @@
         <v>52</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1225,7 +1168,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1252,10 +1195,10 @@
         <v>53</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1272,7 +1215,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1299,11 +1242,11 @@
         <v>54</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1320,7 +1263,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1347,10 +1290,10 @@
         <v>55</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1367,7 +1310,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1397,7 +1340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1414,7 +1357,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1441,10 +1384,10 @@
         <v>47</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1461,7 +1404,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1491,7 +1434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1508,7 +1451,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1535,7 +1478,7 @@
         <v>54</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
